--- a/outputs-HGR-r202/o__Acidaminococcales.xlsx
+++ b/outputs-HGR-r202/o__Acidaminococcales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1013,6 +1168,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1049,6 +1214,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1085,6 +1260,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1103,6 +1283,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1121,6 +1306,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1139,6 +1329,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1157,6 +1352,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1175,6 +1375,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1193,6 +1398,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1211,6 +1421,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1229,6 +1444,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1247,6 +1467,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1265,6 +1490,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1283,6 +1513,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1301,6 +1536,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1319,6 +1559,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1337,6 +1582,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1355,6 +1605,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1373,6 +1628,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1391,6 +1651,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1409,6 +1674,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1427,6 +1697,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1445,6 +1720,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1463,6 +1743,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1481,6 +1766,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1499,6 +1789,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1517,6 +1812,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1535,6 +1835,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1553,6 +1858,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1571,6 +1881,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1589,6 +1904,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1607,6 +1927,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1625,6 +1950,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1643,6 +1973,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1661,6 +1996,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1679,6 +2019,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1697,6 +2042,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1715,6 +2065,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1733,6 +2088,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1751,6 +2111,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1769,6 +2134,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1787,6 +2157,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1805,6 +2180,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1823,6 +2203,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1841,6 +2226,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1859,6 +2249,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1877,6 +2272,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1895,6 +2295,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1913,6 +2318,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1931,6 +2341,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1949,6 +2364,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1967,6 +2387,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1985,6 +2410,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2003,6 +2433,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2021,6 +2456,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2039,6 +2479,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2057,6 +2502,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2075,6 +2525,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2093,6 +2548,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2111,6 +2571,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2129,6 +2594,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2147,6 +2617,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2165,6 +2640,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2183,6 +2663,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2201,6 +2686,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2219,6 +2709,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2237,6 +2732,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2255,6 +2755,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2273,6 +2778,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2291,6 +2801,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2309,6 +2824,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2327,6 +2847,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2345,6 +2870,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2363,6 +2893,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2381,6 +2916,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2399,6 +2939,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2417,6 +2962,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2435,6 +2985,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2453,6 +3008,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2471,6 +3031,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2489,6 +3054,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2507,6 +3077,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2525,6 +3100,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2543,6 +3123,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2561,6 +3146,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2579,6 +3169,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2597,6 +3192,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2615,6 +3215,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2633,6 +3238,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -2651,6 +3261,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -2669,6 +3284,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -2687,6 +3307,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -2705,6 +3330,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -2723,6 +3353,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -2741,6 +3376,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2759,6 +3399,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2777,6 +3422,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -2795,6 +3445,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -2813,6 +3468,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -2831,6 +3491,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -2849,6 +3514,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -2867,6 +3537,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -2885,6 +3560,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -2903,6 +3583,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -2921,6 +3606,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -2939,6 +3629,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -2957,6 +3652,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -2975,6 +3675,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -2993,6 +3698,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3011,6 +3721,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3029,6 +3744,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3047,6 +3767,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3065,6 +3790,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -3083,6 +3813,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -3101,6 +3836,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -3119,6 +3859,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -3137,6 +3882,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -3155,6 +3905,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -3173,6 +3928,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -3191,6 +3951,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -3209,6 +3974,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -3227,6 +3997,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -3245,6 +4020,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -3263,6 +4043,11 @@
           <t>f__Acidaminococcaceae</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -3277,6 +4062,11 @@
         <v>1</v>
       </c>
       <c r="D158" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Acidaminococcales.xlsx
+++ b/outputs-HGR-r202/o__Acidaminococcales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>33761.90188829653</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -491,17 +483,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>41398.85267319581</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -514,17 +503,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>20294.44132412452</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -537,17 +523,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>47050.79527737857</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -560,17 +543,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>37831.27481242744</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -583,17 +563,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>23805.97249330949</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -606,17 +583,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>33269.5211839128</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -629,17 +603,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>33269.5211839128</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -652,17 +623,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>28200.83635038956</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -675,17 +643,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>31202.00646649831</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -698,17 +663,14 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>39832.47953425768</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -721,17 +683,14 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>40498.81471219247</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -744,17 +703,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>37520.65795670112</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -767,17 +723,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>39367.63205002608</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -790,17 +743,14 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>31940.93853360013</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -813,17 +763,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>35138.69595643376</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -836,17 +783,14 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
+        <v>23714.90007790297</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -859,17 +803,14 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
+        <v>37738.26146697998</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -882,17 +823,14 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
+        <v>18225.06438186888</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -905,17 +843,14 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
+        <v>32660.62293125569</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -928,17 +863,14 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
+        <v>33014.78965220012</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -951,17 +883,14 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
+        <v>33020.85638965722</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -974,17 +903,14 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
+        <v>29847.28903130539</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -997,17 +923,14 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
+        <v>32306.8471021262</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1020,17 +943,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
+        <v>29787.72579188763</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1043,17 +963,14 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
+        <v>41031.00680409608</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1066,17 +983,14 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
+        <v>17058.90600236447</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1089,17 +1003,14 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
+        <v>20975.41004515407</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1112,17 +1023,14 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
+        <v>28801.09715451503</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1135,17 +1043,14 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
+        <v>17345.21024533977</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1158,17 +1063,14 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
+        <v>31399.93281042399</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1181,17 +1083,14 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
+        <v>27171.37632881059</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1204,17 +1103,14 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
+        <v>27680.46775989352</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1227,17 +1123,14 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
+        <v>32778.50634362217</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1250,17 +1143,14 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
+        <v>27680.46775989352</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1273,17 +1163,14 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
+        <v>26802.11775391992</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1296,17 +1183,14 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
+        <v>38865.89368420381</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1319,17 +1203,14 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
+        <v>41470.56982818987</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1342,17 +1223,14 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
+        <v>32086.36390494662</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1365,17 +1243,14 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
+        <v>46331.37234846111</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1388,17 +1263,14 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
+        <v>40533.45978576419</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1411,17 +1283,14 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
+        <v>40245.46364481215</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1434,17 +1303,14 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
+        <v>43552.95507521642</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1457,17 +1323,14 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
+        <v>37635.68511975583</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1480,17 +1343,14 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
+        <v>45113.80577214807</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1503,17 +1363,14 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
+        <v>43574.69963830446</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1526,17 +1383,14 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
+        <v>27017.00723106219</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1549,17 +1403,14 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
+        <v>37737.29404269118</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1572,17 +1423,14 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
+        <v>31280.7245265159</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1595,17 +1443,14 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
+        <v>29684.44880155413</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1618,17 +1463,14 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
+        <v>33280.45799646583</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1641,17 +1483,14 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
+        <v>28706.1179012192</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1664,17 +1503,14 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
+        <v>31280.7245265159</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1687,17 +1523,14 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
+        <v>31924.68131436537</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1710,17 +1543,14 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
+        <v>33333.53799030036</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1733,17 +1563,14 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
+        <v>38672.79225074549</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1756,17 +1583,14 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
+        <v>35346.84431364801</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1779,17 +1603,14 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
+        <v>30866.82795993951</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1802,17 +1623,14 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
+        <v>36467.33742826345</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1825,17 +1643,14 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
+        <v>36244.36428218892</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1848,17 +1663,14 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
+        <v>33980.83411937304</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1871,17 +1683,14 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
+        <v>43666.32491698876</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1894,17 +1703,14 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
+        <v>33968.28010394642</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1917,17 +1723,14 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
+        <v>34997.50197630003</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1940,17 +1743,14 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
+        <v>44930.24245798677</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1963,17 +1763,14 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
+        <v>37737.29404269118</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -1986,17 +1783,14 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
+        <v>30610.11659038585</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2009,17 +1803,14 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
+        <v>35898.30952283174</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2032,17 +1823,14 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
+        <v>30713.37847001132</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2055,17 +1843,14 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
+        <v>41964.06444345615</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2078,17 +1863,14 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
+        <v>33803.61074214664</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2101,17 +1883,14 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
+        <v>45337.67324238265</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2124,17 +1903,14 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
+        <v>39937.91469601999</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2147,17 +1923,14 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
+        <v>41838.10423978543</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2170,17 +1943,14 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
+        <v>38150.06144434342</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2193,17 +1963,14 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
+        <v>40104.72430404591</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2216,17 +1983,14 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
+        <v>27871.21494435866</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2239,17 +2003,14 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
+        <v>28369.1553343137</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2262,17 +2023,14 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
+        <v>36035.21959390499</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2285,17 +2043,14 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
+        <v>40189.16623991224</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2308,17 +2063,14 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
+        <v>34529.9898320635</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2331,17 +2083,14 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
+        <v>29482.01326141184</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2354,17 +2103,14 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
+        <v>38623.58471127179</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2377,17 +2123,14 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
+        <v>39129.60074319936</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2400,17 +2143,14 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
+        <v>23844.10333486394</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2423,17 +2163,14 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
+        <v>21358.03706363307</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2446,17 +2183,14 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
+        <v>20955.54093578019</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2469,17 +2203,14 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
+        <v>18351.43820466793</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2492,17 +2223,14 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
+        <v>31303.52815970281</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2515,17 +2243,14 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
+        <v>35533.75237807397</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2538,17 +2263,14 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
+        <v>39334.26362616093</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2561,17 +2283,14 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1</v>
+        <v>35342.43694270417</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2584,17 +2303,14 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1</v>
+        <v>38283.68820720495</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2607,17 +2323,14 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1</v>
+        <v>33437.02145628817</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2630,17 +2343,14 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1</v>
+        <v>38639.23099651275</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2653,17 +2363,14 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1</v>
+        <v>33870.64015345968</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2676,17 +2383,14 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1</v>
+        <v>17359.04118304115</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2699,17 +2403,14 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1</v>
+        <v>42679.61725757134</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2722,17 +2423,14 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1</v>
+        <v>17718.64523546376</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2745,17 +2443,14 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
+        <v>39381.38536978341</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2768,17 +2463,14 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
+        <v>34521.02697395753</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2791,17 +2483,14 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
+        <v>41400.43047217623</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2814,17 +2503,14 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1</v>
+        <v>38144.85861434463</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2837,17 +2523,14 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1</v>
+        <v>38249.80650661737</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D105" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2860,17 +2543,14 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
+        <v>41400.43047217623</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D106" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2883,17 +2563,14 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
+        <v>23578.71600093481</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2906,17 +2583,14 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
+        <v>32877.16476761583</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D108" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2929,17 +2603,14 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
+        <v>35411.62624292637</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D109" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2952,17 +2623,14 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
+        <v>45179.95552315288</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2975,17 +2643,14 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1</v>
+        <v>36857.90007587671</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D111" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -2998,17 +2663,14 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
+        <v>35686.46284772309</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D112" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3021,17 +2683,14 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
+        <v>35686.46284772309</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3044,17 +2703,14 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1</v>
+        <v>38597.93556118502</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D114" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3067,17 +2723,14 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1</v>
+        <v>36850.37022225287</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D115" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3090,17 +2743,14 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1</v>
+        <v>33820.54964078667</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3113,17 +2763,14 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1</v>
+        <v>26133.75397683911</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3136,17 +2783,14 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1</v>
+        <v>39972.98444509464</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D118" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3159,17 +2803,14 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
+        <v>35535.49186716326</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3182,17 +2823,14 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
+        <v>29325.72913620261</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D120" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3205,17 +2843,14 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1</v>
+        <v>33148.84380743024</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D121" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3228,17 +2863,14 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1</v>
+        <v>35278.85861628223</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3251,17 +2883,14 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1</v>
+        <v>29008.13077210146</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D123" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3274,17 +2903,14 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
+        <v>27605.80706304474</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D124" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3297,17 +2923,14 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
+        <v>28091.38199322051</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3320,17 +2943,14 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1</v>
+        <v>30633.20710686607</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3343,17 +2963,14 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
+        <v>30536.39348782668</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D127" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3366,17 +2983,14 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
+        <v>31316.74795156732</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D128" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3389,17 +3003,14 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
+        <v>30633.20710686607</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D129" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3412,17 +3023,14 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D130" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3435,17 +3043,14 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3458,17 +3063,14 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
+        <v>16951.02921786558</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D132" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3481,17 +3083,14 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
+        <v>33770.51897116589</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D133" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3504,17 +3103,14 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D134" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3527,17 +3123,14 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
+        <v>35669.46199070229</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D135" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3550,17 +3143,14 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1</v>
+        <v>26871.56181112722</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D136" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3573,17 +3163,14 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D137" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3596,17 +3183,14 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1</v>
+        <v>31538.74437471512</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D138" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3619,17 +3203,14 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
+        <v>25530.33087812275</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3642,17 +3223,14 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3665,17 +3243,14 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
+        <v>31312.16018949219</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D141" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3688,17 +3263,14 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1</v>
+        <v>31644.26139954308</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D142" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3711,17 +3283,14 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1</v>
+        <v>31312.16018949219</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D143" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3734,17 +3303,14 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D144" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3757,17 +3323,14 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3780,17 +3343,14 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1</v>
+        <v>35669.46199070229</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D146" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3803,17 +3363,14 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1</v>
+        <v>30712.6218012221</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3826,17 +3383,14 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1</v>
+        <v>31312.16018949219</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3849,17 +3403,14 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1</v>
+        <v>30651.04056501768</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D149" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3872,17 +3423,14 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1</v>
+        <v>25530.33087812275</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D150" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3895,17 +3443,14 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3918,17 +3463,14 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1</v>
+        <v>28000.54980443637</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D152" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3941,17 +3483,14 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1</v>
+        <v>31312.16018949219</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D153" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3964,17 +3503,14 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -3987,17 +3523,14 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1</v>
+        <v>31312.16018949219</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D155" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -4010,17 +3543,14 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D156" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -4033,17 +3563,14 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1</v>
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D157" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
@@ -4056,17 +3583,14 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1</v>
+        <v>31081.74671189918</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
       </c>
       <c r="D158" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Acidaminococcales.xlsx
+++ b/outputs-HGR-r202/o__Acidaminococcales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,14 +464,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11036.fa</t>
+          <t>even_MAG-GUT10270.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20635.73682138303</v>
+        <v>33761.90188829653</v>
       </c>
       <c r="C2" t="n">
-        <v>20635.73682138303</v>
+        <v>33761.90188829653</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -487,14 +487,14 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17473.fa</t>
+          <t>even_MAG-GUT10398.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40498.81471219247</v>
+        <v>41398.85267319581</v>
       </c>
       <c r="C3" t="n">
-        <v>40498.81471219247</v>
+        <v>41398.85267319581</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -510,14 +510,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20639.fa</t>
+          <t>even_MAG-GUT10625.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23714.90007790297</v>
+        <v>20294.44132412452</v>
       </c>
       <c r="C4" t="n">
-        <v>23714.90007790297</v>
+        <v>20294.44132412452</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -533,14 +533,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23387.fa</t>
+          <t>even_MAG-GUT11036.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18225.06438186888</v>
+        <v>20635.73682138303</v>
       </c>
       <c r="C5" t="n">
-        <v>18225.06438186888</v>
+        <v>20635.73682138303</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,14 +556,14 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25650.fa</t>
+          <t>even_MAG-GUT11210.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24057.82597558674</v>
+        <v>47050.79527737857</v>
       </c>
       <c r="C6" t="n">
-        <v>24057.82597558674</v>
+        <v>47050.79527737857</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -579,14 +579,14 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2865.fa</t>
+          <t>even_MAG-GUT11332.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20729.05181094279</v>
+        <v>37831.27481242744</v>
       </c>
       <c r="C7" t="n">
-        <v>20729.05181094279</v>
+        <v>37831.27481242744</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -602,14 +602,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29878.fa</t>
+          <t>even_MAG-GUT11435.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17058.90600236447</v>
+        <v>23805.97249330949</v>
       </c>
       <c r="C8" t="n">
-        <v>17058.90600236447</v>
+        <v>23805.97249330949</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -625,14 +625,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31785.fa</t>
+          <t>even_MAG-GUT13045.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20975.41004515407</v>
+        <v>33269.5211839128</v>
       </c>
       <c r="C9" t="n">
-        <v>20975.41004515407</v>
+        <v>33269.5211839128</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -648,14 +648,14 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33530.fa</t>
+          <t>even_MAG-GUT14741.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17345.21024533977</v>
+        <v>33269.5211839128</v>
       </c>
       <c r="C10" t="n">
-        <v>17345.21024533977</v>
+        <v>33269.5211839128</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -671,14 +671,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34206.fa</t>
+          <t>even_MAG-GUT15742.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27171.37632881059</v>
+        <v>28200.83635038956</v>
       </c>
       <c r="C11" t="n">
-        <v>27171.37632881059</v>
+        <v>28200.83635038956</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -694,14 +694,14 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34421.fa</t>
+          <t>even_MAG-GUT1677.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27680.46775989352</v>
+        <v>31202.00646649831</v>
       </c>
       <c r="C12" t="n">
-        <v>27680.46775989352</v>
+        <v>31202.00646649831</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -717,14 +717,14 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34513.fa</t>
+          <t>even_MAG-GUT17255.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32778.50634362217</v>
+        <v>39832.47953425768</v>
       </c>
       <c r="C13" t="n">
-        <v>32778.50634362217</v>
+        <v>39832.47953425768</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -740,14 +740,14 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34778.fa</t>
+          <t>even_MAG-GUT17473.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27680.46775989352</v>
+        <v>40498.81471219247</v>
       </c>
       <c r="C14" t="n">
-        <v>27680.46775989352</v>
+        <v>40498.81471219247</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35231.fa</t>
+          <t>even_MAG-GUT17515.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26802.11775391992</v>
+        <v>37520.65795670112</v>
       </c>
       <c r="C15" t="n">
-        <v>26802.11775391992</v>
+        <v>37520.65795670112</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -786,14 +786,14 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43248.fa</t>
+          <t>even_MAG-GUT20287.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46331.37234846111</v>
+        <v>39367.63205002608</v>
       </c>
       <c r="C16" t="n">
-        <v>46331.37234846111</v>
+        <v>39367.63205002608</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -809,14 +809,14 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51748.fa</t>
+          <t>even_MAG-GUT20540.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27758.63565502431</v>
+        <v>31940.93853360013</v>
       </c>
       <c r="C17" t="n">
-        <v>27758.63565502431</v>
+        <v>31940.93853360013</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -832,14 +832,14 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51766.fa</t>
+          <t>even_MAG-GUT20603.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25471.19468216555</v>
+        <v>35138.69595643376</v>
       </c>
       <c r="C18" t="n">
-        <v>25471.19468216555</v>
+        <v>35138.69595643376</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -855,14 +855,14 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51926.fa</t>
+          <t>even_MAG-GUT20639.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45113.80577214807</v>
+        <v>23714.90007790297</v>
       </c>
       <c r="C19" t="n">
-        <v>45113.80577214807</v>
+        <v>23714.90007790297</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -878,14 +878,14 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5676.fa</t>
+          <t>even_MAG-GUT2203.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29684.44880155413</v>
+        <v>37738.26146697998</v>
       </c>
       <c r="C20" t="n">
-        <v>29684.44880155413</v>
+        <v>37738.26146697998</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -901,14 +901,14 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61708.fa</t>
+          <t>even_MAG-GUT23387.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26895.83658708481</v>
+        <v>18225.06438186888</v>
       </c>
       <c r="C21" t="n">
-        <v>26895.83658708481</v>
+        <v>18225.06438186888</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -924,14 +924,14 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61749.fa</t>
+          <t>even_MAG-GUT24052.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27829.56861464227</v>
+        <v>32660.62293125569</v>
       </c>
       <c r="C22" t="n">
-        <v>27829.56861464227</v>
+        <v>32660.62293125569</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -947,14 +947,14 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62393.fa</t>
+          <t>even_MAG-GUT25048.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27847.01684544174</v>
+        <v>33014.78965220012</v>
       </c>
       <c r="C23" t="n">
-        <v>27847.01684544174</v>
+        <v>33014.78965220012</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -970,14 +970,14 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80385.fa</t>
+          <t>even_MAG-GUT25340.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17359.04118304115</v>
+        <v>33020.85638965722</v>
       </c>
       <c r="C24" t="n">
-        <v>17359.04118304115</v>
+        <v>33020.85638965722</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -993,14 +993,14 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80453.fa</t>
+          <t>even_MAG-GUT25650.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42679.61725757134</v>
+        <v>24057.82597558674</v>
       </c>
       <c r="C25" t="n">
-        <v>42679.61725757134</v>
+        <v>24057.82597558674</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1016,14 +1016,14 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80771.fa</t>
+          <t>even_MAG-GUT2865.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39381.38536978341</v>
+        <v>20729.05181094279</v>
       </c>
       <c r="C26" t="n">
-        <v>39381.38536978341</v>
+        <v>20729.05181094279</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1039,14 +1039,14 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81946.fa</t>
+          <t>even_MAG-GUT29189.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38249.80650661737</v>
+        <v>29847.28903130539</v>
       </c>
       <c r="C27" t="n">
-        <v>38249.80650661737</v>
+        <v>29847.28903130539</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1062,14 +1062,14 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85904.fa</t>
+          <t>even_MAG-GUT29214.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24025.63817972947</v>
+        <v>32306.8471021262</v>
       </c>
       <c r="C28" t="n">
-        <v>24025.63817972947</v>
+        <v>32306.8471021262</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1085,14 +1085,14 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85919.fa</t>
+          <t>even_MAG-GUT29221.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22081.74041405072</v>
+        <v>29787.72579188763</v>
       </c>
       <c r="C29" t="n">
-        <v>22081.74041405072</v>
+        <v>29787.72579188763</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1108,21 +1108,3195 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT29476.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>41031.00680409608</v>
+      </c>
+      <c r="C30" t="n">
+        <v>41031.00680409608</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29878.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>17058.90600236447</v>
+      </c>
+      <c r="C31" t="n">
+        <v>17058.90600236447</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT31785.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>20975.41004515407</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20975.41004515407</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT32691.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>28801.09715451503</v>
+      </c>
+      <c r="C33" t="n">
+        <v>28801.09715451503</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT33530.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>17345.21024533977</v>
+      </c>
+      <c r="C34" t="n">
+        <v>17345.21024533977</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT33657.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>31399.93281042399</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31399.93281042399</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34206.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>27171.37632881059</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27171.37632881059</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34421.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>27680.46775989352</v>
+      </c>
+      <c r="C37" t="n">
+        <v>27680.46775989352</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34513.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>32778.50634362217</v>
+      </c>
+      <c r="C38" t="n">
+        <v>32778.50634362217</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34778.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>27680.46775989352</v>
+      </c>
+      <c r="C39" t="n">
+        <v>27680.46775989352</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT35231.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>26802.11775391992</v>
+      </c>
+      <c r="C40" t="n">
+        <v>26802.11775391992</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37976.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>38865.89368420381</v>
+      </c>
+      <c r="C41" t="n">
+        <v>38865.89368420381</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43152.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>41470.56982818987</v>
+      </c>
+      <c r="C42" t="n">
+        <v>41470.56982818987</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43233.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>32086.36390494662</v>
+      </c>
+      <c r="C43" t="n">
+        <v>32086.36390494662</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43248.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>46331.37234846111</v>
+      </c>
+      <c r="C44" t="n">
+        <v>46331.37234846111</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43329.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>40533.45978576419</v>
+      </c>
+      <c r="C45" t="n">
+        <v>40533.45978576419</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43835.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>40245.46364481215</v>
+      </c>
+      <c r="C46" t="n">
+        <v>40245.46364481215</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45903.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>43552.95507521642</v>
+      </c>
+      <c r="C47" t="n">
+        <v>43552.95507521642</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47875.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>37635.68511975583</v>
+      </c>
+      <c r="C48" t="n">
+        <v>37635.68511975583</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51748.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>27758.63565502431</v>
+      </c>
+      <c r="C49" t="n">
+        <v>27758.63565502431</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51766.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>25471.19468216555</v>
+      </c>
+      <c r="C50" t="n">
+        <v>25471.19468216555</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51926.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>45113.80577214807</v>
+      </c>
+      <c r="C51" t="n">
+        <v>45113.80577214807</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51928.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>43574.69963830446</v>
+      </c>
+      <c r="C52" t="n">
+        <v>43574.69963830446</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5341.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>27017.00723106219</v>
+      </c>
+      <c r="C53" t="n">
+        <v>27017.00723106219</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56559.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>37737.29404269118</v>
+      </c>
+      <c r="C54" t="n">
+        <v>37737.29404269118</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56604.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>31280.7245265159</v>
+      </c>
+      <c r="C55" t="n">
+        <v>31280.7245265159</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5676.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>29684.44880155413</v>
+      </c>
+      <c r="C56" t="n">
+        <v>29684.44880155413</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57066.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>33280.45799646583</v>
+      </c>
+      <c r="C57" t="n">
+        <v>33280.45799646583</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57190.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>28706.1179012192</v>
+      </c>
+      <c r="C58" t="n">
+        <v>28706.1179012192</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57346.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>31280.7245265159</v>
+      </c>
+      <c r="C59" t="n">
+        <v>31280.7245265159</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57398.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>31924.68131436537</v>
+      </c>
+      <c r="C60" t="n">
+        <v>31924.68131436537</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57498.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>33333.53799030036</v>
+      </c>
+      <c r="C61" t="n">
+        <v>33333.53799030036</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57542.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>38672.79225074549</v>
+      </c>
+      <c r="C62" t="n">
+        <v>38672.79225074549</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57592.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>35346.84431364801</v>
+      </c>
+      <c r="C63" t="n">
+        <v>35346.84431364801</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57771.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>30866.82795993951</v>
+      </c>
+      <c r="C64" t="n">
+        <v>30866.82795993951</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57988.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>36467.33742826345</v>
+      </c>
+      <c r="C65" t="n">
+        <v>36467.33742826345</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58133.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>36244.36428218892</v>
+      </c>
+      <c r="C66" t="n">
+        <v>36244.36428218892</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58310.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>33980.83411937304</v>
+      </c>
+      <c r="C67" t="n">
+        <v>33980.83411937304</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58672.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>43666.32491698876</v>
+      </c>
+      <c r="C68" t="n">
+        <v>43666.32491698876</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59502.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>33968.28010394642</v>
+      </c>
+      <c r="C69" t="n">
+        <v>33968.28010394642</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59576.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>34997.50197630003</v>
+      </c>
+      <c r="C70" t="n">
+        <v>34997.50197630003</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5959.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>44930.24245798677</v>
+      </c>
+      <c r="C71" t="n">
+        <v>44930.24245798677</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59626.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>37737.29404269118</v>
+      </c>
+      <c r="C72" t="n">
+        <v>37737.29404269118</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60077.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>30610.11659038585</v>
+      </c>
+      <c r="C73" t="n">
+        <v>30610.11659038585</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60123.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>35898.30952283174</v>
+      </c>
+      <c r="C74" t="n">
+        <v>35898.30952283174</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60157.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>30713.37847001132</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30713.37847001132</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60320.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>41964.06444345615</v>
+      </c>
+      <c r="C76" t="n">
+        <v>41964.06444345615</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60370.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>33803.61074214664</v>
+      </c>
+      <c r="C77" t="n">
+        <v>33803.61074214664</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60466.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>45337.67324238265</v>
+      </c>
+      <c r="C78" t="n">
+        <v>45337.67324238265</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60605.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>39937.91469601999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>39937.91469601999</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60882.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>41838.10423978543</v>
+      </c>
+      <c r="C80" t="n">
+        <v>41838.10423978543</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60999.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>38150.06144434342</v>
+      </c>
+      <c r="C81" t="n">
+        <v>38150.06144434342</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61376.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>40104.72430404591</v>
+      </c>
+      <c r="C82" t="n">
+        <v>40104.72430404591</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61623.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>27871.21494435866</v>
+      </c>
+      <c r="C83" t="n">
+        <v>27871.21494435866</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61658.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>28369.1553343137</v>
+      </c>
+      <c r="C84" t="n">
+        <v>28369.1553343137</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61708.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>26895.83658708481</v>
+      </c>
+      <c r="C85" t="n">
+        <v>26895.83658708481</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61749.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>27829.56861464227</v>
+      </c>
+      <c r="C86" t="n">
+        <v>27829.56861464227</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61937.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>36035.21959390499</v>
+      </c>
+      <c r="C87" t="n">
+        <v>36035.21959390499</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62054.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>40189.16623991224</v>
+      </c>
+      <c r="C88" t="n">
+        <v>40189.16623991224</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62117.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>34529.9898320635</v>
+      </c>
+      <c r="C89" t="n">
+        <v>34529.9898320635</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62393.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>27847.01684544174</v>
+      </c>
+      <c r="C90" t="n">
+        <v>27847.01684544174</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62444.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>29482.01326141184</v>
+      </c>
+      <c r="C91" t="n">
+        <v>29482.01326141184</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62509.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>38623.58471127179</v>
+      </c>
+      <c r="C92" t="n">
+        <v>38623.58471127179</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62666.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>39129.60074319936</v>
+      </c>
+      <c r="C93" t="n">
+        <v>39129.60074319936</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6679.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>23844.10333486394</v>
+      </c>
+      <c r="C94" t="n">
+        <v>23844.10333486394</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69771.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>21358.03706363307</v>
+      </c>
+      <c r="C95" t="n">
+        <v>21358.03706363307</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7031.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>20955.54093578019</v>
+      </c>
+      <c r="C96" t="n">
+        <v>20955.54093578019</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7040.fa</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>18351.43820466793</v>
+      </c>
+      <c r="C97" t="n">
+        <v>18351.43820466793</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72119.fa</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>31303.52815970281</v>
+      </c>
+      <c r="C98" t="n">
+        <v>31303.52815970281</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72127.fa</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>35533.75237807397</v>
+      </c>
+      <c r="C99" t="n">
+        <v>35533.75237807397</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74329.fa</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>39334.26362616093</v>
+      </c>
+      <c r="C100" t="n">
+        <v>39334.26362616093</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74380.fa</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>35342.43694270417</v>
+      </c>
+      <c r="C101" t="n">
+        <v>35342.43694270417</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75402.fa</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>38283.68820720495</v>
+      </c>
+      <c r="C102" t="n">
+        <v>38283.68820720495</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75430.fa</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>33437.02145628817</v>
+      </c>
+      <c r="C103" t="n">
+        <v>33437.02145628817</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75522.fa</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>38639.23099651275</v>
+      </c>
+      <c r="C104" t="n">
+        <v>38639.23099651275</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT79350.fa</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>33870.64015345968</v>
+      </c>
+      <c r="C105" t="n">
+        <v>33870.64015345968</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80385.fa</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>17359.04118304115</v>
+      </c>
+      <c r="C106" t="n">
+        <v>17359.04118304115</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80453.fa</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>42679.61725757134</v>
+      </c>
+      <c r="C107" t="n">
+        <v>42679.61725757134</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80718.fa</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>17718.64523546376</v>
+      </c>
+      <c r="C108" t="n">
+        <v>17718.64523546376</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80771.fa</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>39381.38536978341</v>
+      </c>
+      <c r="C109" t="n">
+        <v>39381.38536978341</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80816.fa</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>34521.02697395753</v>
+      </c>
+      <c r="C110" t="n">
+        <v>34521.02697395753</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81679.fa</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>41400.43047217623</v>
+      </c>
+      <c r="C111" t="n">
+        <v>41400.43047217623</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81926.fa</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>38144.85861434463</v>
+      </c>
+      <c r="C112" t="n">
+        <v>38144.85861434463</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81946.fa</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>38249.80650661737</v>
+      </c>
+      <c r="C113" t="n">
+        <v>38249.80650661737</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81987.fa</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>41400.43047217623</v>
+      </c>
+      <c r="C114" t="n">
+        <v>41400.43047217623</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82039.fa</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>23578.71600093481</v>
+      </c>
+      <c r="C115" t="n">
+        <v>23578.71600093481</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82105.fa</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>32877.16476761583</v>
+      </c>
+      <c r="C116" t="n">
+        <v>32877.16476761583</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82160.fa</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>35411.62624292637</v>
+      </c>
+      <c r="C117" t="n">
+        <v>35411.62624292637</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82436.fa</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>45179.95552315288</v>
+      </c>
+      <c r="C118" t="n">
+        <v>45179.95552315288</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82468.fa</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>36857.90007587671</v>
+      </c>
+      <c r="C119" t="n">
+        <v>36857.90007587671</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82509.fa</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>35686.46284772309</v>
+      </c>
+      <c r="C120" t="n">
+        <v>35686.46284772309</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82562.fa</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>35686.46284772309</v>
+      </c>
+      <c r="C121" t="n">
+        <v>35686.46284772309</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82635.fa</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>38597.93556118502</v>
+      </c>
+      <c r="C122" t="n">
+        <v>38597.93556118502</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82654.fa</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>36850.37022225287</v>
+      </c>
+      <c r="C123" t="n">
+        <v>36850.37022225287</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82703.fa</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>33820.54964078667</v>
+      </c>
+      <c r="C124" t="n">
+        <v>33820.54964078667</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82738.fa</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>26133.75397683911</v>
+      </c>
+      <c r="C125" t="n">
+        <v>26133.75397683911</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82744.fa</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>39972.98444509464</v>
+      </c>
+      <c r="C126" t="n">
+        <v>39972.98444509464</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84598.fa</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>35535.49186716326</v>
+      </c>
+      <c r="C127" t="n">
+        <v>35535.49186716326</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84613.fa</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>29325.72913620261</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29325.72913620261</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85104.fa</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>33148.84380743024</v>
+      </c>
+      <c r="C129" t="n">
+        <v>33148.84380743024</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85904.fa</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>24025.63817972947</v>
+      </c>
+      <c r="C130" t="n">
+        <v>24025.63817972947</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85919.fa</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>22081.74041405072</v>
+      </c>
+      <c r="C131" t="n">
+        <v>22081.74041405072</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86870.fa</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>35278.85861628223</v>
+      </c>
+      <c r="C132" t="n">
+        <v>35278.85861628223</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87479.fa</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>29008.13077210146</v>
+      </c>
+      <c r="C133" t="n">
+        <v>29008.13077210146</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87575.fa</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>27605.80706304474</v>
+      </c>
+      <c r="C134" t="n">
+        <v>27605.80706304474</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87833.fa</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>28091.38199322051</v>
+      </c>
+      <c r="C135" t="n">
+        <v>28091.38199322051</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88081.fa</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>30633.20710686607</v>
+      </c>
+      <c r="C136" t="n">
+        <v>30633.20710686607</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT88255.fa</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B137" t="n">
         <v>30536.39348782668</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C137" t="n">
         <v>30536.39348782668</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>f__Acidaminococcaceae</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88680.fa</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>31316.74795156732</v>
+      </c>
+      <c r="C138" t="n">
+        <v>31316.74795156732</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88995.fa</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>30633.20710686607</v>
+      </c>
+      <c r="C139" t="n">
+        <v>30633.20710686607</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89180.fa</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C140" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89206.fa</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C141" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89239.fa</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>16951.02921786558</v>
+      </c>
+      <c r="C142" t="n">
+        <v>16951.02921786558</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89279.fa</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>33770.51897116589</v>
+      </c>
+      <c r="C143" t="n">
+        <v>33770.51897116589</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89290.fa</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C144" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89315.fa</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>35669.46199070229</v>
+      </c>
+      <c r="C145" t="n">
+        <v>35669.46199070229</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89344.fa</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>26871.56181112722</v>
+      </c>
+      <c r="C146" t="n">
+        <v>26871.56181112722</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89353.fa</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C147" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89416.fa</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>31538.74437471512</v>
+      </c>
+      <c r="C148" t="n">
+        <v>31538.74437471512</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89571.fa</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>25530.33087812275</v>
+      </c>
+      <c r="C149" t="n">
+        <v>25530.33087812275</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89719.fa</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C150" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89868.fa</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>31312.16018949219</v>
+      </c>
+      <c r="C151" t="n">
+        <v>31312.16018949219</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89896.fa</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>31644.26139954308</v>
+      </c>
+      <c r="C152" t="n">
+        <v>31644.26139954308</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90087.fa</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>31312.16018949219</v>
+      </c>
+      <c r="C153" t="n">
+        <v>31312.16018949219</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90109.fa</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C154" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90165.fa</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C155" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90191.fa</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>35669.46199070229</v>
+      </c>
+      <c r="C156" t="n">
+        <v>35669.46199070229</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90290.fa</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>30712.6218012221</v>
+      </c>
+      <c r="C157" t="n">
+        <v>30712.6218012221</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90323.fa</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>31312.16018949219</v>
+      </c>
+      <c r="C158" t="n">
+        <v>31312.16018949219</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90479.fa</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>30651.04056501768</v>
+      </c>
+      <c r="C159" t="n">
+        <v>30651.04056501768</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90502.fa</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>25530.33087812275</v>
+      </c>
+      <c r="C160" t="n">
+        <v>25530.33087812275</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90506.fa</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C161" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90686.fa</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>28000.54980443637</v>
+      </c>
+      <c r="C162" t="n">
+        <v>28000.54980443637</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90699.fa</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>31312.16018949219</v>
+      </c>
+      <c r="C163" t="n">
+        <v>31312.16018949219</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90976.fa</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C164" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91042.fa</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>31312.16018949219</v>
+      </c>
+      <c r="C165" t="n">
+        <v>31312.16018949219</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91118.fa</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C166" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91137.fa</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="C167" t="n">
+        <v>31300.96362253989</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9659.fa</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>31081.74671189918</v>
+      </c>
+      <c r="C168" t="n">
+        <v>31081.74671189918</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>f__Acidaminococcaceae</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
         <is>
           <t>f__Acidaminococcaceae</t>
         </is>
